--- a/FedXGB/MP-FedXGB/results_forecast_flights.xlsx
+++ b/FedXGB/MP-FedXGB/results_forecast_flights.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adity\Documents\git_repos\TreeVFL\FedXGB\MP-FedXGB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17351F51-3F50-43CA-9D15-7F99AC64C08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E6DD59-B944-4070-8298-E2241918406E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{D9491651-A8C6-4AD0-A8B3-4D9BDCBF16C3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Window Size</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Skforecast</t>
+  </si>
+  <si>
+    <t>Diffusion</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C78D6C-8D70-4141-B3EB-02AB6D40E034}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,9 +416,10 @@
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,8 +435,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>60</v>
       </c>
@@ -448,8 +455,11 @@
       <c r="E2">
         <v>6.7000000000000002E-3</v>
       </c>
+      <c r="F2">
+        <v>2.1999999999999999E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>80</v>
       </c>
@@ -465,8 +475,11 @@
       <c r="E3">
         <v>6.3E-3</v>
       </c>
+      <c r="F3">
+        <v>2.7699999999999999E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
@@ -482,8 +495,11 @@
       <c r="E4">
         <v>2.7000000000000001E-3</v>
       </c>
+      <c r="F4">
+        <v>7.1999999999999998E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>120</v>
       </c>
@@ -499,8 +515,11 @@
       <c r="E5">
         <v>1.1299999999999999E-2</v>
       </c>
+      <c r="F5">
+        <v>3.5000000000000001E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f t="shared" ref="B6:E6" si="0">AVERAGE(B2:B5)</f>
         <v>3.3249999999999998E-3</v>
@@ -516,6 +535,10 @@
       <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>6.7500000000000008E-3</v>
+      </c>
+      <c r="F6" s="1">
+        <f>AVERAGE(F2:F5)</f>
+        <v>8.8675000000000004E-3</v>
       </c>
     </row>
   </sheetData>
